--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.35974</v>
       </c>
       <c r="O2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q2">
-        <v>0.8791100283222223</v>
+        <v>0.6446347739533334</v>
       </c>
       <c r="R2">
-        <v>7.9119902549</v>
+        <v>5.80171296558</v>
       </c>
       <c r="S2">
-        <v>0.169017841487814</v>
+        <v>0.07297726364433911</v>
       </c>
       <c r="T2">
-        <v>0.169017841487814</v>
+        <v>0.07297726364433911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="H3">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="I3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="J3">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N3">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O3">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P3">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q3">
-        <v>0.7865070500233334</v>
+        <v>1.43524149622</v>
       </c>
       <c r="R3">
-        <v>7.078563450210001</v>
+        <v>12.91717346598</v>
       </c>
       <c r="S3">
-        <v>0.1512139773488825</v>
+        <v>0.1624795951056235</v>
       </c>
       <c r="T3">
-        <v>0.1512139773488825</v>
+        <v>0.1624795951056234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.488444</v>
       </c>
       <c r="I4">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J4">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>0.35974</v>
       </c>
       <c r="O4">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P4">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q4">
         <v>0.01952364939555555</v>
@@ -700,10 +700,10 @@
         <v>0.17571284456</v>
       </c>
       <c r="S4">
-        <v>0.003753620107257113</v>
+        <v>0.002210216647949934</v>
       </c>
       <c r="T4">
-        <v>0.003753620107257114</v>
+        <v>0.002210216647949934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>0.488444</v>
       </c>
       <c r="I5">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="J5">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N5">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O5">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P5">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q5">
-        <v>0.01746708306933333</v>
+        <v>0.04346825970666667</v>
       </c>
       <c r="R5">
-        <v>0.157203747624</v>
+        <v>0.3912143373600001</v>
       </c>
       <c r="S5">
-        <v>0.00335822432045442</v>
+        <v>0.004920917668341081</v>
       </c>
       <c r="T5">
-        <v>0.00335822432045442</v>
+        <v>0.00492091766834108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H6">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I6">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J6">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.35974</v>
       </c>
       <c r="O6">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P6">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q6">
-        <v>0.8876667240199999</v>
+        <v>1.198431480593333</v>
       </c>
       <c r="R6">
-        <v>7.98900051618</v>
+        <v>10.78588332534</v>
       </c>
       <c r="S6">
-        <v>0.1706629532377807</v>
+        <v>0.1356710088451832</v>
       </c>
       <c r="T6">
-        <v>0.1706629532377807</v>
+        <v>0.1356710088451832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="H7">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="I7">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="J7">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N7">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O7">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P7">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q7">
-        <v>0.794162407458</v>
+        <v>2.668237366060001</v>
       </c>
       <c r="R7">
-        <v>7.147461667122</v>
+        <v>24.01413629454</v>
       </c>
       <c r="S7">
-        <v>0.1526857976532128</v>
+        <v>0.3020635398467256</v>
       </c>
       <c r="T7">
-        <v>0.1526857976532128</v>
+        <v>0.3020635398467255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H8">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I8">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J8">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.35974</v>
       </c>
       <c r="O8">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P8">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q8">
-        <v>0.1936591539688889</v>
+        <v>0.0930683753711111</v>
       </c>
       <c r="R8">
-        <v>1.74293238572</v>
+        <v>0.83761537834</v>
       </c>
       <c r="S8">
-        <v>0.03723294142218627</v>
+        <v>0.01053600525574435</v>
       </c>
       <c r="T8">
-        <v>0.03723294142218628</v>
+        <v>0.01053600525574435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="H9">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="I9">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="J9">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N9">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O9">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P9">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q9">
-        <v>0.1732596432653333</v>
+        <v>0.2072112763933334</v>
       </c>
       <c r="R9">
-        <v>1.559336789388</v>
+        <v>1.86490148754</v>
       </c>
       <c r="S9">
-        <v>0.03331092807295537</v>
+        <v>0.02345779743574771</v>
       </c>
       <c r="T9">
-        <v>0.03331092807295537</v>
+        <v>0.02345779743574771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H10">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I10">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J10">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.35974</v>
       </c>
       <c r="O10">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P10">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q10">
-        <v>0.7652705451488889</v>
+        <v>0.7821459085777778</v>
       </c>
       <c r="R10">
-        <v>6.88743490634</v>
+        <v>7.039313177199999</v>
       </c>
       <c r="S10">
-        <v>0.1471310433599775</v>
+        <v>0.08854450688189792</v>
       </c>
       <c r="T10">
-        <v>0.1471310433599775</v>
+        <v>0.08854450688189792</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="H11">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="I11">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="J11">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N11">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O11">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P11">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q11">
-        <v>0.6846590978873334</v>
+        <v>1.741401968133333</v>
       </c>
       <c r="R11">
-        <v>6.161931880986001</v>
+        <v>15.6726177132</v>
       </c>
       <c r="S11">
-        <v>0.1316326729894794</v>
+        <v>0.1971391486684476</v>
       </c>
       <c r="T11">
-        <v>0.1316326729894794</v>
+        <v>0.1971391486684476</v>
       </c>
     </row>
   </sheetData>
